--- a/학과관리용.xlsx
+++ b/학과관리용.xlsx
@@ -12,7 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="학생" sheetId="1" r:id="rId1"/>
+    <sheet name="교수" sheetId="2" r:id="rId2"/>
+    <sheet name="과목" sheetId="3" r:id="rId3"/>
+    <sheet name="시험" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,10 +26,466 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">재직
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">휴직
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>퇴직</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">재학
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">휴학
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>졸업</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ㅇ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_student_info : 학생정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재학여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si_isstu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_professor_info : 교수정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재직여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_isemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk, fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_subject_major : 과목정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_exam_info : 시험정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이의제기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ei_chell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,13 +509,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +553,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -356,19 +845,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
